--- a/programData/advancedSettings_defaults.xlsx
+++ b/programData/advancedSettings_defaults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EG5565\programData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7300EF1F-567B-4BE2-A836-ABBE330C4F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6939436-22FD-4D0A-A050-39D81AD488E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1650" windowWidth="23505" windowHeight="13635" xr2:uid="{3476EE86-CE29-4DEC-B280-B22F748F8CBD}"/>
+    <workbookView xWindow="29535" yWindow="1200" windowWidth="23505" windowHeight="13635" xr2:uid="{3476EE86-CE29-4DEC-B280-B22F748F8CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Component</t>
   </si>
@@ -92,9 +92,6 @@
     <t>-1</t>
   </si>
   <si>
-    <t>Coefficient of thermal expansion (microstrain/K)</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -114,6 +111,42 @@
   </si>
   <si>
     <t>radius/gap/thickness (um/um/1/m)</t>
+  </si>
+  <si>
+    <t>Coefficient of thermal expansion (ue/K)</t>
+  </si>
+  <si>
+    <t>HSMVals</t>
+  </si>
+  <si>
+    <t>HSMVars</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>Refractive index</t>
+  </si>
+  <si>
+    <t>0.527212</t>
+  </si>
+  <si>
+    <t>Grating period (um)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Thermo-optic coeff (ue/K)</t>
+  </si>
+  <si>
+    <t>Ref. temperature (deg C)</t>
+  </si>
+  <si>
+    <t>0.0015</t>
+  </si>
+  <si>
+    <t>Fiber length (m)</t>
   </si>
 </sst>
 </file>
@@ -487,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BC06A6-79CD-4371-A2F4-2F5240BC5FAC}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +531,7 @@
     <col min="2" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +547,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -531,8 +570,14 @@
       <c r="E2" s="1">
         <v>72</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -548,8 +593,14 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -565,10 +616,16 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -577,27 +634,39 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -847,20 +916,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="535a45db-52dd-462d-b530-861a768bf350" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="535a45db-52dd-462d-b530-861a768bf350" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -883,14 +952,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40694726-4DC8-47C7-96EA-9D05C9BA6005}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2502B54-2402-40CA-8896-A60076B89A64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -905,4 +966,12 @@
     <ds:schemaRef ds:uri="535a45db-52dd-462d-b530-861a768bf350"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40694726-4DC8-47C7-96EA-9D05C9BA6005}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>